--- a/Microsoft-Azure/CIS Assessment/AzureCISComplianceReport.xlsx
+++ b/Microsoft-Azure/CIS Assessment/AzureCISComplianceReport.xlsx
@@ -6,13 +6,14 @@
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Azure CIS Compliance Report</t>
   </si>
@@ -147,6 +148,36 @@
   </si>
   <si>
     <t>50a12961-c468-4222-a588-80b50cd56206</t>
+  </si>
+  <si>
+    <t>ControlName</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>Ensure Multi-Factor Auth Status is Enabled for all Non-Privileged Users</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>Ensure that 'Allow users to remember multi-factor authentication on devices they trust' is Disabled</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Ensure Trusted Locations Are Defined</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>Ensure an Azure Bastion Host Exists</t>
   </si>
 </sst>
 </file>
@@ -208,8 +239,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ComplianceResults" displayName="ComplianceResults" ref="A2:D122" headerRowCount="1">
-  <autoFilter ref="A2:D122"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ComplianceResults" displayName="ComplianceResults" ref="A3:D131" headerRowCount="1">
+  <autoFilter ref="A3:D131"/>
   <tableColumns count="4">
     <tableColumn id="1" name="SubscriptionId"/>
     <tableColumn id="2" name="ControlId"/>
@@ -222,7 +253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -242,46 +273,18 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -289,10 +292,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>8</v>
@@ -303,10 +306,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>11</v>
@@ -317,10 +320,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>8</v>
@@ -331,10 +334,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>11</v>
@@ -345,10 +348,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>8</v>
@@ -359,13 +362,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -373,10 +376,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>8</v>
@@ -387,10 +390,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>8</v>
@@ -401,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>8</v>
@@ -415,13 +418,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -429,13 +432,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -443,13 +446,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -457,24 +460,24 @@
         <v>5</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>8</v>
@@ -482,29 +485,15 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -513,13 +502,13 @@
         <v>38</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -527,13 +516,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -541,13 +530,13 @@
         <v>38</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -555,13 +544,13 @@
         <v>38</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -569,10 +558,10 @@
         <v>38</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>8</v>
@@ -583,13 +572,13 @@
         <v>38</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -597,10 +586,10 @@
         <v>38</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>8</v>
@@ -611,10 +600,10 @@
         <v>38</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>8</v>
@@ -625,10 +614,10 @@
         <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>8</v>
@@ -639,10 +628,10 @@
         <v>38</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>8</v>
@@ -653,10 +642,10 @@
         <v>38</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>8</v>
@@ -667,10 +656,10 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>8</v>
@@ -678,13 +667,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>8</v>
@@ -692,44 +681,30 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -737,10 +712,10 @@
         <v>39</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>8</v>
@@ -751,10 +726,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>11</v>
@@ -765,10 +740,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>8</v>
@@ -779,13 +754,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -793,10 +768,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>8</v>
@@ -807,13 +782,13 @@
         <v>39</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -821,10 +796,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>8</v>
@@ -835,13 +810,13 @@
         <v>39</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -849,13 +824,13 @@
         <v>39</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -863,10 +838,10 @@
         <v>39</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>8</v>
@@ -877,10 +852,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>8</v>
@@ -888,27 +863,27 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>11</v>
@@ -916,13 +891,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>8</v>
@@ -930,29 +905,15 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -961,13 +922,13 @@
         <v>40</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -975,13 +936,13 @@
         <v>40</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -989,10 +950,10 @@
         <v>40</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>8</v>
@@ -1003,13 +964,13 @@
         <v>40</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -1017,10 +978,10 @@
         <v>40</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>8</v>
@@ -1031,13 +992,13 @@
         <v>40</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
@@ -1045,13 +1006,13 @@
         <v>40</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -1059,13 +1020,13 @@
         <v>40</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -1073,10 +1034,10 @@
         <v>40</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>8</v>
@@ -1087,10 +1048,10 @@
         <v>40</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>8</v>
@@ -1098,13 +1059,13 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>8</v>
@@ -1112,13 +1073,13 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>11</v>
@@ -1126,58 +1087,44 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="69">
@@ -1185,10 +1132,10 @@
         <v>41</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>8</v>
@@ -1199,13 +1146,13 @@
         <v>41</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -1213,10 +1160,10 @@
         <v>41</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>8</v>
@@ -1227,13 +1174,13 @@
         <v>41</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
@@ -1241,10 +1188,10 @@
         <v>41</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>8</v>
@@ -1255,10 +1202,10 @@
         <v>41</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>11</v>
@@ -1269,13 +1216,13 @@
         <v>41</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -1283,10 +1230,10 @@
         <v>41</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>8</v>
@@ -1297,10 +1244,10 @@
         <v>41</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>8</v>
@@ -1308,13 +1255,13 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>8</v>
@@ -1322,41 +1269,41 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>11</v>
@@ -1364,13 +1311,13 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>8</v>
@@ -1378,29 +1325,15 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1409,10 +1342,10 @@
         <v>42</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>8</v>
@@ -1423,13 +1356,13 @@
         <v>42</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
@@ -1437,10 +1370,10 @@
         <v>42</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>8</v>
@@ -1451,13 +1384,13 @@
         <v>42</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
@@ -1465,13 +1398,13 @@
         <v>42</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -1479,10 +1412,10 @@
         <v>42</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>11</v>
@@ -1493,10 +1426,10 @@
         <v>42</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>8</v>
@@ -1507,10 +1440,10 @@
         <v>42</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>8</v>
@@ -1518,13 +1451,13 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>8</v>
@@ -1532,27 +1465,27 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>8</v>
@@ -1560,13 +1493,13 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>11</v>
@@ -1574,57 +1507,43 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D100" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1633,10 +1552,10 @@
         <v>43</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>8</v>
@@ -1647,13 +1566,13 @@
         <v>43</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103">
@@ -1661,10 +1580,10 @@
         <v>43</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>8</v>
@@ -1675,10 +1594,10 @@
         <v>43</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>11</v>
@@ -1689,13 +1608,13 @@
         <v>43</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106">
@@ -1703,13 +1622,13 @@
         <v>43</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107">
@@ -1717,10 +1636,10 @@
         <v>43</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>8</v>
@@ -1728,13 +1647,13 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>8</v>
@@ -1742,27 +1661,27 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>8</v>
@@ -1770,41 +1689,41 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>11</v>
@@ -1812,13 +1731,13 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>8</v>
@@ -1826,29 +1745,15 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D116" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1857,10 +1762,10 @@
         <v>44</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>8</v>
@@ -1871,13 +1776,13 @@
         <v>44</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119">
@@ -1885,13 +1790,13 @@
         <v>44</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120">
@@ -1899,10 +1804,10 @@
         <v>44</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>11</v>
@@ -1913,10 +1818,10 @@
         <v>44</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>8</v>
@@ -1927,12 +1832,138 @@
         <v>44</v>
       </c>
       <c r="B122" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B131" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C131" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D131" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1942,4 +1973,2165 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D153"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.6502265930176" customWidth="1"/>
+    <col min="2" max="2" width="9.61972808837891" customWidth="1"/>
+    <col min="3" max="3" width="95.2543792724609" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
 </file>